--- a/ItemCirculationManagementBackground/Resource/Files/ExcelImport/学生信息导入表格.xlsx
+++ b/ItemCirculationManagementBackground/Resource/Files/ExcelImport/学生信息导入表格.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>卡号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>某某某</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14届</t>
+  </si>
+  <si>
+    <t>一班</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,20 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +453,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1092447868</v>
       </c>
@@ -447,6 +469,12 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
